--- a/output.xlsx
+++ b/output.xlsx
@@ -397,14 +397,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>image</v>
+        <v>imageTitle</v>
       </c>
       <c r="B1" t="str">
         <v>name</v>
@@ -427,53 +427,122 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>=IMAGE("https://kohler.scene7.com/is/image/PAWEB/GBH_SQTemplate?$product_src=is{PAWEB/aad95530_rgb}&amp;$PDPDesktopSQ$&amp;fmt=webp","image not found",0,100,100)</v>
+        <v>image1</v>
       </c>
       <c r="B2" t="str">
-        <v>Brazn®</v>
+        <v>Components®</v>
       </c>
       <c r="C2" t="str">
-        <v>$6,328.50</v>
+        <v>$3,137.96</v>
       </c>
       <c r="D2" t="str">
-        <v>K-21388-0</v>
+        <v>K-T77984-4-SN</v>
       </c>
       <c r="E2" t="str">
-        <v>White</v>
+        <v>Vibrant Polished Nickel</v>
       </c>
       <c r="F2" t="str">
-        <v xml:space="preserve"> 66" x 35" freestanding bath</v>
+        <v xml:space="preserve"> Floor-mount bath filler trim with lever handles and handshower</v>
       </c>
       <c r="G2" t="str">
-        <v>https://www.kohler.com/en/products/bathtubs/shop-bathtubs/brazn-66-x-35-freestanding-bath-21388?skuId=21388-0</v>
+        <v>https://www.kohler.com/en/products/bathtubs/shop-bathtub-faucets/components-floor-mount-bath-filler-trim-with-lever-handles-and-handshower-t77984-4?skuId=T77984-4-SN</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>=IMAGE("https://kohler.scene7.com/is/image/PAWEB/GBH_SQTemplate?$product_src=is{PAWEB/zab67997_rgb}&amp;$PDPDesktopSQ$&amp;fmt=webp","image not found",0,100,100)</v>
+        <v>image2</v>
       </c>
       <c r="B3" t="str">
-        <v>San Souci®</v>
+        <v>Components™</v>
       </c>
       <c r="C3" t="str">
-        <v>$695.62</v>
+        <v>$238.61</v>
       </c>
       <c r="D3" t="str">
-        <v>K-5172-RA-0</v>
+        <v>K-25159-SN</v>
       </c>
       <c r="E3" t="str">
-        <v>White</v>
+        <v>Vibrant Polished Nickel</v>
       </c>
       <c r="F3" t="str">
-        <v xml:space="preserve"> One-piece compact elongated toilet with concealed trapway, 1.28 gpf</v>
+        <v xml:space="preserve"> 12" grab bar</v>
       </c>
       <c r="G3" t="str">
-        <v>https://www.kohler.com/en/products/toilets/shop-toilets/san-souci-comfort-height-one-piece-compact-elongated-1-28-gpf-toilet-w-aquapiston-flushing-technology-and-right-hand-trip-lever-concealed-trapway-5172-ra?skuId=5172-RA-0</v>
+        <v>https://www.kohler.com/en/products/bathroom-accessories/shop-bathroom-accessories/components-12-grab-bar-25159?skuId=25159-SN</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>image3</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Components®</v>
+      </c>
+      <c r="C4" t="str">
+        <v>$129.00</v>
+      </c>
+      <c r="D4" t="str">
+        <v>K-78377-SN</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Vibrant Polished Nickel</v>
+      </c>
+      <c r="F4" t="str">
+        <v xml:space="preserve"> Towel arm</v>
+      </c>
+      <c r="G4" t="str">
+        <v>https://www.kohler.com/en/products/bathroom-accessories/shop-bathroom-accessories/components-towel-arm-78377?skuId=78377-SN</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>image4</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Components™</v>
+      </c>
+      <c r="C5" t="str">
+        <v>$238.61</v>
+      </c>
+      <c r="D5" t="str">
+        <v>K-25159-SN</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Vibrant Polished Nickel</v>
+      </c>
+      <c r="F5" t="str">
+        <v xml:space="preserve"> 12" grab bar</v>
+      </c>
+      <c r="G5" t="str">
+        <v>https://www.kohler.com/en/products/bathroom-accessories/shop-bathroom-accessories/components-12-grab-bar-25159?skuId=25159-SN</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>image5</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Components®</v>
+      </c>
+      <c r="C6" t="str">
+        <v>$83.89</v>
+      </c>
+      <c r="D6" t="str">
+        <v>K-78378-SN</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Vibrant Polished Nickel</v>
+      </c>
+      <c r="F6" t="str">
+        <v xml:space="preserve"> Robe hook</v>
+      </c>
+      <c r="G6" t="str">
+        <v>https://www.kohler.com/en/products/bathroom-accessories/shop-bathroom-accessories/robe-hook-assembly-78378?skuId=78378-SN</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G6"/>
   </ignoredErrors>
 </worksheet>
 </file>